--- a/newsalesdata.xlsx
+++ b/newsalesdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramva\OneDrive\Desktop\Adithya\Data Science\Projects\WalmartSalesAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramva\OneDrive\Desktop\Adithya\Data Science\Projects\Walmart-Sales-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9419C512-1E2C-4831-8942-7ACA8E3BEB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B80DBE-6328-406F-9361-A4E35033EE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{48949B16-90C2-454D-9B7A-4EA5C4CC47E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10020" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10021" uniqueCount="1053">
   <si>
     <t>Invoice_ID</t>
   </si>
@@ -3190,6 +3190,9 @@
   </si>
   <si>
     <t>898-04-2717</t>
+  </si>
+  <si>
+    <t>Adhitya</t>
   </si>
 </sst>
 </file>
@@ -3543,15 +3546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3333F8E-B4E5-4B64-9545-F993CD976342}">
-  <dimension ref="A1:T1001"/>
+  <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3612,8 +3615,11 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -4419,7 +4425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
